--- a/preprocessed_stemming.xlsx
+++ b/preprocessed_stemming.xlsx
@@ -699,7 +699,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>satisf pel reconhec aut cobranç par correspond expect cans somat</t>
+          <t>satisf pel reconhec autocobranç par correspond expect cans somat</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>satisf pel reconhec aut cobranç par correspond expect cans somat</t>
+          <t>satisf pel reconhec autocobranç par correspond expect cans somat</t>
         </is>
       </c>
     </row>
@@ -753,14 +753,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>satisf pel reconhec aut cobranç par correspond expect cans somat</t>
+          <t>satisf pel reconhec autocobranç par correspond expect cans somat</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>coleg telef ped ajud últ hor visit famfamili trabalh faculdad par</t>
+          <t>coleg telef ped ajud últ hor visit famili trabalh faculdad par</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -787,7 +787,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>coleg telef ped ajud últ hor visit famfamili trabalh faculdad par</t>
+          <t>coleg telef ped ajud últ hor visit famili trabalh faculdad par</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -868,7 +868,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>restr aliment cas sozs disponibil discuss coleg cl</t>
+          <t>restr aliment cas so disponibil discuss coleg cl</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -895,7 +895,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>restr aliment cas sozs disponibil discuss coleg cl</t>
+          <t>restr aliment cas so disponibil discuss coleg cl</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -922,7 +922,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>restr aliment cas sozs disponibil discuss coleg cl</t>
+          <t>restr aliment cas so disponibil discuss coleg cl</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -949,7 +949,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>restr aliment cas sozs disponibil discuss coleg cl</t>
+          <t>restr aliment cas so disponibil discuss coleg cl</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1067,7 +1067,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>contr control control avers pal</t>
+          <t>contracontrol control avers pal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>priv vint hor est so cas aaut regr vou alg calór grand quant par consegu vomit facil discuss pai</t>
+          <t>priv vint hor est so cas autorregr vou alg calór grand quant par consegu vomit facil discuss pai</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1111,7 +1111,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>priv vint hor est so cas aaut regr vou alg calór grand quant par consegu vomit facil discuss pai</t>
+          <t>priv vint hor est so cas autorregr vou alg calór grand quant par consegu vomit facil discuss pai</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>priv vint hor est so cas aaut regr vou alg calór grand quant par consegu vomit facil discuss pai</t>
+          <t>priv vint hor est so cas autorregr vou alg calór grand quant par consegu vomit facil discuss pai</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>priv vint hor est so cas aaut regr vou alg calór grand quant par consegu vomit facil discuss pai</t>
+          <t>priv vint hor est so cas autorregr vou alg calór grand quant par consegu vomit facil discuss pai</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>induz vômit us laxlax usarurétdiuré restringirntosal físic</t>
+          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>induz vômit us laxlax usarurétdiuré restringirntosal físic</t>
+          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>induz vômit us laxlax usarurétdiuré restringirntosal físic</t>
+          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1266,7 +1266,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>aut confianç par invest relacion amor</t>
+          <t>autoconfianç par invest relacion amor</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>induz vômit us laxlax usarurétdiuré restringirntosal físic</t>
+          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1293,7 +1293,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>aut confianç par invest relacion amor</t>
+          <t>autoconfianç par invest relacion amor</t>
         </is>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>induz vômit us laxlax usarurétdiuré restringirntosal físic</t>
+          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>aut confianç par invest relacion amor</t>
+          <t>autoconfianç par invest relacion amor</t>
         </is>
       </c>
     </row>
@@ -1332,7 +1332,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>induz vômit us laxlax usarurétdiuré restringirntosal físic</t>
+          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>aut confianç par invest relacion amor</t>
+          <t>autoconfianç par invest relacion amor</t>
         </is>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>contr control control avers pai</t>
+          <t>contracontrol control avers pai</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2029,7 +2029,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>discuss delegac comum pai vítim estupr tent atir acus dur discuss revolv cai próx vítim golp sit relacion afet amoamor atim peg revólv apont par cabeç</t>
+          <t>discuss delegac comum pai vítim estrup tent atir acus dur discuss revolv cai próx vítim golp sit relacion afet amor vítim peg revólv apont par cabeç</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>discuss delegac comum pai vítim estupr tent atir acus dur discuss revolv cai próx vítim golp sit relacion afet amoamor atim peg revólv apont par cabeç</t>
+          <t>discuss delegac comum pai vítim estrup tent atir acus dur discuss revolv cai próx vítim golp sit relacion afet amor vítim peg revólv apont par cabeç</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>verôn presenç suicídi mulh trabalh</t>
+          <t>verôn presenc suicídi mulh trabalh</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2083,7 +2083,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>discuss delegac comum pai vítim estupr tent atir acus dur discuss revolv cai próx vítim golp sit relacion afet amoamor atim peg revólv apont par cabeç</t>
+          <t>discuss delegac comum pai vítim estrup tent atir acus dur discuss revolv cai próx vítim golp sit relacion afet amor vítim peg revólv apont par cabeç</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2201,7 +2201,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>chef diss pod investig cas porqu presenci suicídi escriv detetiv</t>
+          <t>chef diss pod investig cas porqu presenci suicídi escrivã detetiv</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2353,7 +2353,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>verôn descobr corrupç polic regr polpoliciaism ajud pesso</t>
+          <t>verôn descobr corrupç polic regr polic ajud pesso</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2380,7 +2380,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>verôn descobr corrupç polic regr polpoliciaism ajud pesso</t>
+          <t>verôn descobr corrupç polic regr polic ajud pesso</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2542,12 +2542,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>inter soc convit par situ socsoc demandasr tom decisõdecis problemas resolvidoresolv novasdad trabalh</t>
+          <t>inter soc convit par situ soc demand tom decis problem resolv nov oportun trabalh</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>respost passiv tímid p ex fal pouc pens dia decis sab med julg decis encerr assunt respond med ansiedad</t>
+          <t>respost passiv tímid p ex fal pouc pens adi decis sab med julg decis encerr assunt respond med ansiedad</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2569,12 +2569,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>inter soc convit par situ socsoc demandasr tom decisõdecis problemas resolvidoresolv novasdad trabalh</t>
+          <t>inter soc convit par situ soc demand tom decis problem resolv nov oportun trabalh</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>respost passiv tímid p ex fal pouc pens dia decis sab med julg decis encerr assunt respond med ansiedad</t>
+          <t>respost passiv tímid p ex fal pouc pens adi decis sab med julg decis encerr assunt respond med ansiedad</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2596,12 +2596,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>inter soc convit par situ socsoc demandasr tom decisõdecis problemas resolvidoresolv novasdad trabalh</t>
+          <t>inter soc convit par situ soc demand tom decis problem resolv nov oportun trabalh</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>respost passiv tímid p ex fal pouc pens dia decis sab med julg decis encerr assunt respond med ansiedad</t>
+          <t>respost passiv tímid p ex fal pouc pens adi decis sab med julg decis encerr assunt respond med ansiedad</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2623,12 +2623,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>inter soc convit par situ socsoc demandasr tom decisõdecis problemas resolvidoresolv novasdad trabalh</t>
+          <t>inter soc convit par situ soc demand tom decis problem resolv nov oportun trabalh</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>respost passiv tímid p ex fal pouc pens dia decis sab med julg decis encerr assunt respond med ansiedad</t>
+          <t>respost passiv tímid p ex fal pouc pens adi decis sab med julg decis encerr assunt respond med ansiedad</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss tratrabalh desmarcar laz</t>
+          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss tratrabalh desmarcar laz</t>
+          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss tratrabalh desmarcar laz</t>
+          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss tratrabalh desmarcar laz</t>
+          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss tratrabalh desmarcar laz</t>
+          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2790,7 +2790,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss tratrabalh desmarcar laz</t>
+          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>sobrecarg pesso aproveit la</t>
+          <t>sobrecarg pesso aproveit del</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3109,12 +3109,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>convit namor par viaj convit amig coleg trabalh par saisa propost trabaltrabalh problemasúd saúd demandas cuid filh</t>
+          <t>convit namor par viaj convit amig coleg trabalh par sair propost trabalh problem saúd demand relat cuid filh</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>aceit convit par sair ativ difer aceit nov propost tratrabalh pedirud cuid filh divid responrespons cuidarúd aliment ib adequ adequ praticarfís</t>
+          <t>aceit convit par sair ativ difer aceit nov propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3136,12 +3136,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>convit namor par viaj convit amig coleg trabalh par saisa propost trabaltrabalh problemasúd saúd demandas cuid filh</t>
+          <t>convit namor par viaj convit amig coleg trabalh par sair propost trabalh problem saúd demand relat cuid filh</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>aceit convit par sair ativ difer aceit nov propost tratrabalh pedirud cuid filh divid responrespons cuidarúd aliment ib adequ adequ praticarfís</t>
+          <t>aceit convit par sair ativ difer aceit nov propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3163,12 +3163,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>convit namor par viaj convit amig coleg trabalh par saisa propost trabaltrabalh problemasúd saúd demandas cuid filh</t>
+          <t>convit namor par viaj convit amig coleg trabalh par sair propost trabalh problem saúd demand relat cuid filh</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>aceit convit par sair ativ difer aceit nov propost tratrabalh pedirud cuid filh divid responrespons cuidarúd aliment ib adequ adequ praticarfís</t>
+          <t>aceit convit par sair ativ difer aceit nov propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3190,12 +3190,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>convit namor par viaj convit amig coleg trabalh par saisa propost trabaltrabalh problemasúd saúd demandas cuid filh</t>
+          <t>convit namor par viaj convit amig coleg trabalh par sair propost trabalh problem saúd demand relat cuid filh</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>aceit convit par sair ativ difer aceit nov propost tratrabalh pedirud cuid filh divid responrespons cuidarúd aliment ib adequ adequ praticarfís</t>
+          <t>aceit convit par sair ativ difer aceit nov propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3222,7 +3222,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>assert argument express opin sensent recusard form diret</t>
+          <t>assert argument express opin sent recus ped form diret</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>assert argument express opin sensent recusard form diret</t>
+          <t>assert argument express opin sent recus ped form diret</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>assert argument express opin sensent recusard form diret</t>
+          <t>assert argument express opin sent recus ped form diret</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>assert argument express opin sensent recusard form diret</t>
+          <t>assert argument express opin sent recus ped form diret</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>assert argument express opin sensent recusard form diret</t>
+          <t>assert argument express opin sent recus ped form diret</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>assert argument express opin sensent recusard form diret</t>
+          <t>assert argument express opin sent recus ped form diret</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>busc soluç solic ajuajud fazerd diret envolv nov oportun trabaltrabalh tom decis expressart necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>busc soluç solic ajuajud fazerd diret envolv nov oportun trabaltrabalh tom decis expressart necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>risc pesso receb ped</t>
+          <t>risc pesso recus ped</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>busc soluç solic ajuajud fazerd diret envolv nov oportun trabaltrabalh tom decis expressart necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>busc soluç solic ajuajud fazerd diret envolv nov oportun trabaltrabalh tom decis expressart necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>busc soluç solic ajuajud fazerd diret envolv nov oportun trabaltrabalh tom decis expressart necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3519,7 +3519,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>busc soluç solic ajuajud fazerd diret envolv nov oportun trabaltrabalh tom decis expressart necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -3546,7 +3546,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>busc soluç solic ajuajud fazerd diret envolv nov oportun trabaltrabalh tom decis expressart necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>busc soluç solic ajuajud fazerd diret envolv nov oportun trabaltrabalh tom decis expressart necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3681,7 +3681,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>hiperplas</t>
+          <t>hiperlal</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>hiperplas</t>
+          <t>hiperlal</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3865,7 +3865,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig aut regr pesso tod dev gost mim sd solicit ajud amig famili</t>
+          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig autorregr pesso tod dev gost mim sd solicit ajud amig famili</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3892,7 +3892,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig aut regr pesso tod dev gost mim sd solicit ajud amig famili</t>
+          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig autorregr pesso tod dev gost mim sd solicit ajud amig famili</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3919,7 +3919,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig aut regr pesso tod dev gost mim sd solicit ajud amig famili</t>
+          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig autorregr pesso tod dev gost mim sd solicit ajud amig famili</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3942,7 +3942,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig aut regr pesso tod dev gost mim sd solicit ajud amig famili</t>
+          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig autorregr pesso tod dev gost mim sd solicit ajud amig famili</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -4429,7 +4429,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ativ norm dentr aceit pel pal evit paip finge vê escutaescut respostand ansiedad</t>
+          <t>ativ norm dentr aceit pel pal evit pai fing vê escut respost respond ansiedad</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ativ norm dentr aceit pel pal evit paip finge vê escutaescut respostand ansiedad</t>
+          <t>ativ norm dentr aceit pel pal evit pai fing vê escut respost respond ansiedad</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4618,7 +4618,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>aument voz xing discut car raiv consegu pensarcl respostas respond transpir sens est estress</t>
+          <t>aument voz xing discut car raiv consegu pens cl respost respond transpir sens est estress</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>aument voz xing discut car raiv consegu pensarcl respostas respond transpir sens est estress</t>
+          <t>aument voz xing discut car raiv consegu pens cl respost respond transpir sens est estress</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>aument voz xing discut car raiv consegu pensarcl respostas respond transpir sens est estress</t>
+          <t>aument voz xing discut car raiv consegu pens cl respost respond transpir sens est estress</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -5347,7 +5347,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>dia comport procrastin vésp tent lembr queacontec dizz esquec pouc</t>
+          <t>adi comport procrastin vésp tent lembr acontec esquec pouc</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -5374,7 +5374,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>dia comport procrastin vésp tent lembr queacontec dizz esquec pouc</t>
+          <t>adi comport procrastin vésp tent lembr acontec esquec pouc</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">

--- a/preprocessed_stemming.xlsx
+++ b/preprocessed_stemming.xlsx
@@ -527,7 +527,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pouc inter pouc atenç pesso</t>
+          <t>inter atenç pesso</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -549,7 +549,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>patríc convers namor sobr incomod</t>
+          <t>patríc convers namor incomod</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +576,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>patríc convers namor sobr incomod</t>
+          <t>patríc convers namor incomod</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>repet problem ocorr nov problem relacion</t>
+          <t>repet problem ocorr problem relacion</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -598,17 +598,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>monoton relaç namor discuss terap seman cas namor</t>
+          <t>monoton namor discuss terap seman cas namor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>patríc tom inici convid namor par cinem</t>
+          <t>patríc tom inici convid namor cinem</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>diss pref fic cas poi est cans</t>
+          <t>diss pref fic cas cans</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -630,12 +630,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>patríc compr roup íntim nov ped namor prepar noit difer par doi</t>
+          <t>patríc compr roup íntim ped namor prepar noit difer</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>respond lingeri par mulh sint diferenç par hom</t>
+          <t>respond lingeri mulh sint diferenç hom</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>patríc sent trist rejeit pel namor</t>
+          <t>patríc sent trist rejeit namor</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>patríc compr roup íntim nov ped namor prepar noit difer par doi</t>
+          <t>patríc compr roup íntim ped namor prepar noit difer</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>prepar nad espec</t>
+          <t>prepar espec</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -672,14 +672,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>patríc sent trist rejeit pel namor</t>
+          <t>patríc sent trist rejeit namor</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ped qualqu pesso regr sempr dev ajud outr par pesso</t>
+          <t>ped pesso regr ajud pesso</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -699,14 +699,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>satisf pel reconhec autocobranç par correspond expect cans somat</t>
+          <t>satisf reconhec autocobranç correspond expect cans somat</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ped qualqu pesso regr sempr dev ajud outr par pesso</t>
+          <t>ped pesso regr ajud pesso</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>consider tod pesso prest</t>
+          <t>consider pesso prest</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -726,14 +726,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>satisf pel reconhec autocobranç par correspond expect cans somat</t>
+          <t>satisf reconhec autocobranç correspond expect cans somat</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ped qualqu pesso regr sempr dev ajud outr par pesso</t>
+          <t>ped pesso regr ajud pesso</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -753,19 +753,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>satisf pel reconhec autocobranç par correspond expect cans somat</t>
+          <t>satisf reconhec autocobranç correspond expect cans somat</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>coleg telef ped ajud últ hor visit famili trabalh faculdad par</t>
+          <t>coleg telef ped ajud últ hor visit famili trabalh faculdad</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>patríc explic situ par coleg dess pod ajud la mesm sent desconfort fat neg ped</t>
+          <t>patríc explic situ coleg ajud la sent desconfort fat neg ped</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -787,17 +787,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>coleg telef ped ajud últ hor visit famili trabalh faculdad par</t>
+          <t>coleg telef ped ajud últ hor visit famili trabalh faculdad</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>patríc explic situ par coleg dess pod ajud la mesm sent desconfort fat neg ped</t>
+          <t>patríc explic situ coleg ajud la sent desconfort fat neg ped</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>patríc temp par pass famíl par conclu trabalh tranquil</t>
+          <t>patríc pass famíl conclu trabalh tranquil</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>patríc fal pouc soment necess respond ansiedad taquicard sudores rub fac</t>
+          <t>patríc fal necess respond ansiedad taquicard sudores rub fac</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>patríc fal pouc soment necess respond ansiedad taquicard sudores rub fac</t>
+          <t>patríc fal necess respond ansiedad taquicard sudores rub fac</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -868,12 +868,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>restr aliment cas so disponibil discuss coleg cl</t>
+          <t>restr aliment cas so disponibil com discuss coleg cl</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>aproximad trê kcal vint minut compuls aliment</t>
+          <t>com aproximad kcal minut compuls aliment</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -895,12 +895,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>restr aliment cas so disponibil discuss coleg cl</t>
+          <t>restr aliment cas so disponibil com discuss coleg cl</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>aproximad trê kcal vint minut compuls aliment</t>
+          <t>com aproximad kcal minut compuls aliment</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -922,12 +922,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>restr aliment cas so disponibil discuss coleg cl</t>
+          <t>restr aliment cas so disponibil com discuss coleg cl</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>aproximad trê kcal vint minut compuls aliment</t>
+          <t>com aproximad kcal minut compuls aliment</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -949,12 +949,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>restr aliment cas so disponibil discuss coleg cl</t>
+          <t>restr aliment cas so disponibil com discuss coleg cl</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>aproximad trê kcal vint minut compuls aliment</t>
+          <t>com aproximad kcal minut compuls aliment</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>restring aliment recus ofert aliment ingest aliment pouc calór</t>
+          <t>restring aliment recus ofert aliment ingest aliment calór</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>restring aliment recus ofert aliment ingest aliment pouc calór</t>
+          <t>restring aliment recus ofert aliment ingest aliment calór</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>restring aliment recus ofert aliment ingest aliment pouc calór</t>
+          <t>restring aliment recus ofert aliment ingest aliment calór</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>restring aliment recus ofert aliment ingest aliment pouc calór</t>
+          <t>restring aliment recus ofert aliment ingest aliment calór</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1084,7 +1084,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>priv vint hor est so cas autorregr vou alg calór grand quant par consegu vomit facil discuss pai</t>
+          <t>priv com hor com so cas autorregr vou com calór com quant consegu vomit facil discuss pai</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1094,7 +1094,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>elimin priv</t>
+          <t>elimin priv com</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1111,7 +1111,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>priv vint hor est so cas autorregr vou alg calór grand quant par consegu vomit facil discuss pai</t>
+          <t>priv com hor com so cas autorregr vou com calór com quant consegu vomit facil discuss pai</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1138,7 +1138,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>priv vint hor est so cas autorregr vou alg calór grand quant par consegu vomit facil discuss pai</t>
+          <t>priv com hor com so cas autorregr vou com calór com quant consegu vomit facil discuss pai</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1165,7 +1165,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>priv vint hor est so cas autorregr vou alg calór grand quant par consegu vomit facil discuss pai</t>
+          <t>priv com hor com so cas autorregr vou com calór com quant consegu vomit facil discuss pai</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1192,12 +1192,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ridicular porqu corp fei autorregr vou alg calór grand quant par consegu vomit facil episódi compuls aliment</t>
+          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ser ridicular corp fei autorregr vou com calór com quant consegu vomit facil episódi compuls aliment</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
+          <t>induz vômit lax diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1219,12 +1219,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ridicular porqu corp fei autorregr vou alg calór grand quant par consegu vomit facil episódi compuls aliment</t>
+          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ser ridicular corp fei autorregr vou com calór com quant consegu vomit facil episódi compuls aliment</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
+          <t>induz vômit lax diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1239,19 +1239,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>diminu vergonh própri corp tamanh mam</t>
+          <t>diminu vergonh corp tamanh mam</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ridicular porqu corp fei autorregr vou alg calór grand quant par consegu vomit facil episódi compuls aliment</t>
+          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ser ridicular corp fei autorregr vou com calór com quant consegu vomit facil episódi compuls aliment</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
+          <t>induz vômit lax diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1266,19 +1266,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>autoconfianç par invest relacion amor</t>
+          <t>autoconfianç invest relacion amor</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ridicular porqu corp fei autorregr vou alg calór grand quant par consegu vomit facil episódi compuls aliment</t>
+          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ser ridicular corp fei autorregr vou com calór com quant consegu vomit facil episódi compuls aliment</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
+          <t>induz vômit lax diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1293,19 +1293,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>autoconfianç par invest relacion amor</t>
+          <t>autoconfianç invest relacion amor</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ridicular porqu corp fei autorregr vou alg calór grand quant par consegu vomit facil episódi compuls aliment</t>
+          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ser ridicular corp fei autorregr vou com calór com quant consegu vomit facil episódi compuls aliment</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
+          <t>induz vômit lax diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1320,19 +1320,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>autoconfianç par invest relacion amor</t>
+          <t>autoconfianç invest relacion amor</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ridicular porqu corp fei autorregr vou alg calór grand quant par consegu vomit facil episódi compuls aliment</t>
+          <t>sofr bullying escol relacion sobrepes pouc amig solid priv soc autorregr nad cas amig ser ridicular corp fei autorregr vou com calór com quant consegu vomit facil episódi compuls aliment</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>induz vômit us lax us diuré restring aliment exercíci físic</t>
+          <t>induz vômit lax diuré restring aliment exercíci físic</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1347,14 +1347,14 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>autoconfianç par invest relacion amor</t>
+          <t>autoconfianç invest relacion amor</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pai esport conv par pratic ativ físic</t>
+          <t>pai esport conv pratic ativ físic</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1374,14 +1374,14 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sens est</t>
+          <t>sens</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pai esport conv par pratic ativ físic</t>
+          <t>pai esport conv pratic ativ físic</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1401,14 +1401,14 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>sens est</t>
+          <t>sens</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pai esport conv par pratic ativ físic</t>
+          <t>pai esport conv pratic ativ físic</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1428,14 +1428,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>sens est</t>
+          <t>sens</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pai esport conv par pratic ativ físic</t>
+          <t>pai esport conv pratic ativ físic</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1462,7 +1462,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>pai esport conv par pratic ativ físic</t>
+          <t>pai esport conv pratic ativ físic</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1570,7 +1570,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>passei pel florest manhã</t>
+          <t>passei florest manhã</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1597,7 +1597,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>estefan visit malévol conv par brinc</t>
+          <t>estefan visit malévol conv brinc</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1624,7 +1624,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>estefan visit malévol conv par brinc</t>
+          <t>estefan visit malévol conv brinc</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1651,7 +1651,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>exércit human aproxim par invad rein mo mat malévol</t>
+          <t>exércit human aproxim invad rein mo mat malévol</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1678,12 +1678,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>exércit human aproxim par invad rein mo mat malévol</t>
+          <t>exércit human aproxim invad rein mo mat malévol</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>malévol convoc criat rein par lut</t>
+          <t>malévol convoc criat rein lut</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1705,7 +1705,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>exércit human aproxim par invad rein mo mat malévol</t>
+          <t>exércit human aproxim invad rein mo mat malévol</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1791,7 +1791,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>malévol dorm lad estefan</t>
+          <t>malévol dorm estefan</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1813,7 +1813,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>malévol convid par celebr batiz filh rei estefan</t>
+          <t>malévol convid celebr batiz filh rei estefan</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>malévol lanç feitiç sobr menin</t>
+          <t>malévol lanç feitiç menin</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1894,7 +1894,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>trê fad desastr cri filh rei</t>
+          <t>fad desastr cri filh rei</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1975,7 +1975,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>aur quest sobr feitiç</t>
+          <t>aur quest feitiç</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2029,12 +2029,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>discuss delegac comum pai vítim estrup tent atir acus dur discuss revolv cai próx vítim golp sit relacion afet amor vítim peg revólv apont par cabeç</t>
+          <t>discuss delegac comum pai vítim estrup atir acus dur discuss revolv cai vítim golp sit relacion afet amor vítim peg revólv apont cabeç</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>verôn aprox vítim inic convers par tent imped comport suic</t>
+          <t>verôn aprox vítim inic convers imped comport suic</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2056,12 +2056,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>discuss delegac comum pai vítim estrup tent atir acus dur discuss revolv cai próx vítim golp sit relacion afet amor vítim peg revólv apont par cabeç</t>
+          <t>discuss delegac comum pai vítim estrup atir acus dur discuss revolv cai vítim golp sit relacion afet amor vítim peg revólv apont cabeç</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>verôn aprox vítim inic convers par tent imped comport suic</t>
+          <t>verôn aprox vítim inic convers imped comport suic</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2083,12 +2083,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>discuss delegac comum pai vítim estrup tent atir acus dur discuss revolv cai próx vítim golp sit relacion afet amor vítim peg revólv apont par cabeç</t>
+          <t>discuss delegac comum pai vítim estrup atir acus dur discuss revolv cai vítim golp sit relacion afet amor vítim peg revólv apont cabeç</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>verôn aprox vítim inic convers par tent imped comport suic</t>
+          <t>verôn aprox vítim inic convers imped comport suic</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2120,7 +2120,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>evid sobr crim</t>
+          <t>possível evid crim</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2164,17 +2164,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>articul coleg trabalh par justific caus mort suicídi decorr vítim sid rotul depress</t>
+          <t>articul coleg trabalh justific caus mort suicídi decorr vítim sid rotul depress</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>discut chef sobr justif caus mort realiz investig</t>
+          <t>discut chef justif caus mort realiz investig</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>chef crít diss par tom cuid</t>
+          <t>chef crít diss tom cuid</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2191,17 +2191,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>articul coleg trabalh par justific caus mort suicídi decorr vítim sid rotul depress</t>
+          <t>articul coleg trabalh justific caus mort suicídi decorr vítim sid rotul depress</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>discut chef sobr justif caus mort realiz investig</t>
+          <t>discut chef justif caus mort realiz investig</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>chef diss pod investig cas porqu presenci suicídi escrivã detetiv</t>
+          <t>chef diss investig cas presenci suicídi escrivã detetiv</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2223,12 +2223,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>argument import del par investig cas apresent inform colh médic legist</t>
+          <t>argument import del investig cas apresent inform colh médic legist</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>deleg seman par mesm apresent prov</t>
+          <t>deleg seman mesm apresent prov</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2245,12 +2245,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>deleg seman par mesm apresent prov</t>
+          <t>deleg seman mesm apresent prov</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>pesquis internet sobr sit relacion afet amor convers amig vítim</t>
+          <t>pesquis internet sit relacion afet amor convers amig vítim</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2272,17 +2272,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>deleg seman par mesm apresent prov</t>
+          <t>deleg seman mesm apresent prov</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>pesquis internet sobr sit relacion afet amor convers amig vítim</t>
+          <t>pesquis internet sit relacion afet amor convers amig vítim</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>inform sobr relacion abus vivenci pel vítim</t>
+          <t>inform relacion abus vivenci vítim</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2299,12 +2299,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>deleg seman par mesm apresent prov</t>
+          <t>deleg seman mesm apresent prov</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>apresent prov par deleg</t>
+          <t>apresent prov deleg</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2326,17 +2326,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>entrevist par explic cas suicídi</t>
+          <t>entrevist explic cas suicídi</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>explic cas suicídi cas golp contr mulh</t>
+          <t>explic cas suicídi cas golp mulh</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>mulh pass ess crim procur lig par delegac</t>
+          <t>mulh pass crim procur lig delegac</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2407,12 +2407,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>mant contat esp brand deu brinc escut par</t>
+          <t>mant contat esp brand deu brinc escut</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>siti ond ocorr crim brand</t>
+          <t>siti ocorr crim brand</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2434,12 +2434,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>deleg ped pra verôn emb famíl regr inici investig precis concluí la</t>
+          <t>deleg ped pra verôn famíl regr inici investig precis concluí la</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>permanec cidad par continu investig</t>
+          <t>permanec cidad continu investig</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2461,17 +2461,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>deleg ped pra verôn emb famíl regr inici investig precis concluí la</t>
+          <t>deleg ped pra verôn famíl regr inici investig precis concluí la</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>permanec cidad par continu investig</t>
+          <t>permanec cidad continu investig</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>famíl emb</t>
+          <t>famíl</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2542,12 +2542,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>inter soc convit par situ soc demand tom decis problem resolv nov oportun trabalh</t>
+          <t>inter soc convit situ soc demand tom decis problem ser resolv oportun trabalh</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>respost passiv tímid p ex fal pouc pens adi decis sab med julg decis encerr assunt respond med ansiedad</t>
+          <t>respost passiv tímid p ex fal pens adi decis med julg decis encerr assunt respond med ansiedad</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2569,12 +2569,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>inter soc convit par situ soc demand tom decis problem resolv nov oportun trabalh</t>
+          <t>inter soc convit situ soc demand tom decis problem ser resolv oportun trabalh</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>respost passiv tímid p ex fal pouc pens adi decis sab med julg decis encerr assunt respond med ansiedad</t>
+          <t>respost passiv tímid p ex fal pens adi decis med julg decis encerr assunt respond med ansiedad</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2596,12 +2596,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>inter soc convit par situ soc demand tom decis problem resolv nov oportun trabalh</t>
+          <t>inter soc convit situ soc demand tom decis problem ser resolv oportun trabalh</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>respost passiv tímid p ex fal pouc pens adi decis sab med julg decis encerr assunt respond med ansiedad</t>
+          <t>respost passiv tímid p ex fal pens adi decis med julg decis encerr assunt respond med ansiedad</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2623,12 +2623,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>inter soc convit par situ soc demand tom decis problem resolv nov oportun trabalh</t>
+          <t>inter soc convit situ soc demand tom decis problem ser resolv oportun trabalh</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>respost passiv tímid p ex fal pouc pens adi decis sab med julg decis encerr assunt respond med ansiedad</t>
+          <t>respost passiv tímid p ex fal pens adi decis med julg decis encerr assunt respond med ansiedad</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2655,12 +2655,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
+          <t>assum respons resoluç quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>consider tod mãe</t>
+          <t>consider mãe</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2682,12 +2682,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
+          <t>assum respons resoluç quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>tod problem filh resolv</t>
+          <t>problem filh resolv</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
+          <t>assum respons resoluç quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2736,7 +2736,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
+          <t>assum respons resoluç quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2763,7 +2763,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
+          <t>assum respons resoluç quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2790,12 +2790,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>assum respons pel resoluç tod quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
+          <t>assum respons resoluç quest relacion filh desmarc compromiss trabalh desmarc ativ laz</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>aus víncul signific outr pesso</t>
+          <t>aus víncul signific pesso</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2812,12 +2812,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ganh pes priv soc crít cobranç mãe pouc temp livr par cuid si</t>
+          <t>ganh pes priv soc crít cobranç mãe livr cuid si</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>tom remédi perig par emagrec provoc vômit</t>
+          <t>tom remédi perig emagrec provoc vômit</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -2839,12 +2839,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>ganh pes priv soc crít cobranç mãe pouc temp livr par cuid si</t>
+          <t>ganh pes priv soc crít cobranç mãe livr cuid si</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>tom remédi perig par emagrec provoc vômit</t>
+          <t>tom remédi perig emagrec provoc vômit</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -2866,12 +2866,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ganh pes priv soc crít cobranç mãe pouc temp livr par cuid si</t>
+          <t>ganh pes priv soc crít cobranç mãe livr cuid si</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>tom remédi perig par emagrec provoc vômit</t>
+          <t>tom remédi perig emagrec provoc vômit</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -2893,12 +2893,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ganh pes priv soc crít cobranç mãe pouc temp livr par cuid si</t>
+          <t>ganh pes priv soc crít cobranç mãe livr cuid si</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>tom remédi perig par emagrec provoc vômit</t>
+          <t>tom remédi perig emagrec provoc vômit</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2920,12 +2920,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ganh pes priv soc crít cobranç mãe pouc temp livr par cuid si</t>
+          <t>ganh pes priv soc crít cobranç mãe livr cuid si</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>tom remédi perig par emagrec provoc vômit</t>
+          <t>tom remédi perig emagrec provoc vômit</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -2947,12 +2947,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ganh pes priv soc crít cobranç mãe pouc temp livr par cuid si</t>
+          <t>ganh pes priv soc crít cobranç mãe livr cuid si</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>tom remédi perig par emagrec provoc vômit</t>
+          <t>tom remédi perig emagrec provoc vômit</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -2979,7 +2979,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>passiv sacrif par atend ped gentil educ aceit impos outr mesm concord</t>
+          <t>passiv sacrif atend ped gentil educ aceit impos concord</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3006,7 +3006,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>passiv sacrif par atend ped gentil educ aceit impos outr mesm concord</t>
+          <t>passiv sacrif atend ped gentil educ aceit impos concord</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>passiv sacrif par atend ped gentil educ aceit impos outr mesm concord</t>
+          <t>passiv sacrif atend ped gentil educ aceit impos concord</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3060,12 +3060,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>passiv sacrif par atend ped gentil educ aceit impos outr mesm concord</t>
+          <t>passiv sacrif atend ped gentil educ aceit impos concord</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>pouc temp par ativ inter</t>
+          <t>ativ inter</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>passiv sacrif par atend ped gentil educ aceit impos outr mesm concord</t>
+          <t>passiv sacrif atend ped gentil educ aceit impos concord</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3109,12 +3109,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>convit namor par viaj convit amig coleg trabalh par sair propost trabalh problem saúd demand relat cuid filh</t>
+          <t>convit namor viaj convit amig coleg trabalh sair propost trabalh problem saúd demand relat cuid filh</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>aceit convit par sair ativ difer aceit nov propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
+          <t>aceit convit sair ativ difer aceit propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3136,12 +3136,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>convit namor par viaj convit amig coleg trabalh par sair propost trabalh problem saúd demand relat cuid filh</t>
+          <t>convit namor viaj convit amig coleg trabalh sair propost trabalh problem saúd demand relat cuid filh</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>aceit convit par sair ativ difer aceit nov propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
+          <t>aceit convit sair ativ difer aceit propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3163,12 +3163,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>convit namor par viaj convit amig coleg trabalh par sair propost trabalh problem saúd demand relat cuid filh</t>
+          <t>convit namor viaj convit amig coleg trabalh sair propost trabalh problem saúd demand relat cuid filh</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>aceit convit par sair ativ difer aceit nov propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
+          <t>aceit convit sair ativ difer aceit propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -3190,12 +3190,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>convit namor par viaj convit amig coleg trabalh par sair propost trabalh problem saúd demand relat cuid filh</t>
+          <t>convit namor viaj convit amig coleg trabalh sair propost trabalh problem saúd demand relat cuid filh</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>aceit convit par sair ativ difer aceit nov propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
+          <t>aceit convit sair ativ difer aceit propost trabalh ped ajud cuid filh divid respons cuid saúd aliment médic adequ pratic ativ físic</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -3222,12 +3222,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>assert argument express opin sent recus ped form diret</t>
+          <t>assert argument express opin sent recus ped diret</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>estimul avers risc exp situ nov desafi</t>
+          <t>estimul avers risc exp situ desafi</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3249,7 +3249,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>assert argument express opin sent recus ped form diret</t>
+          <t>assert argument express opin sent recus ped diret</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>assert argument express opin sent recus ped form diret</t>
+          <t>assert argument express opin sent recus ped diret</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>contat nov reforç</t>
+          <t>contat reforç</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>assert argument express opin sent recus ped form diret</t>
+          <t>assert argument express opin sent recus ped diret</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -3330,7 +3330,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>assert argument express opin sent recus ped form diret</t>
+          <t>assert argument express opin sent recus ped diret</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>assert argument express opin sent recus ped form diret</t>
+          <t>assert argument express opin sent recus ped diret</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>alegr est</t>
+          <t>alegr</t>
         </is>
       </c>
     </row>
@@ -3384,7 +3384,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -3411,7 +3411,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -3438,7 +3438,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -3465,7 +3465,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -3519,12 +3519,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>mai autonom</t>
+          <t>autonom</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -3532,11 +3532,7 @@
           <t>r+</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>est</t>
-        </is>
-      </c>
+      <c r="E115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3546,12 +3542,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>mai independ financ</t>
+          <t>independ financ</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3559,11 +3555,7 @@
           <t>r+</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>est</t>
-        </is>
-      </c>
+      <c r="E116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3573,12 +3565,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>busc soluç solic ajud ped diret envolv nov oportun trabalh tom decis express sent necess man cl</t>
+          <t>busc soluç solic ajud ped diret envolv oportun trabalh tom decis express sent necess man cl</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>melhor relacion interpesso</t>
+          <t>melhor qual relacion interpesso</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3649,7 +3641,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>regr model mãe passiv formul autorregr mant silênci situ conflit sd pai agress brig verb entr pal irm apanh</t>
+          <t>regr model mãe passiv formul autorregr mant silênci situ conflit sd pai agress brig verb pal irm apanh</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3676,7 +3668,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>qu precis solic ajud qu descrev event pass sobr si</t>
+          <t>precis solic ajud descrev event pass si</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3686,7 +3678,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>compreend pel ouvint mod pesso demonstr dispos par ajud la compreend la acalm la</t>
+          <t>compreend ouvint mod pesso demonstr dispos ajud la compreend la acalm la</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3703,7 +3695,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>qu precis solic ajud qu descrev event pass sobr si</t>
+          <t>precis solic ajud descrev event pass si</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3713,7 +3705,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>compreend pel ouvint mod pesso demonstr dispos par ajud la compreend la acalm la</t>
+          <t>compreend ouvint mod pesso demonstr dispos ajud la compreend la acalm la</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3730,7 +3722,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>regr pai soub alg sobr voc mat pesso regr sogr voc dev mãe esp pesso conhec necessit cuid ajud</t>
+          <t>regr pai soub mat pesso regr sogr mãe esp pesso necessit cuid ajud</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3757,7 +3749,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>regr pai soub alg sobr voc mat pesso regr sogr voc dev mãe esp pesso conhec necessit cuid ajud</t>
+          <t>regr pai soub mat pesso regr sogr mãe esp pesso necessit cuid ajud</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3784,7 +3776,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>regr pai soub alg sobr voc mat pesso regr sogr voc dev mãe esp pesso conhec necessit cuid ajud</t>
+          <t>regr pai soub mat pesso regr sogr mãe esp pesso necessit cuid ajud</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3811,7 +3803,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>regr pai soub alg sobr voc mat pesso regr sogr voc dev mãe esp pesso conhec necessit cuid ajud</t>
+          <t>regr pai soub mat pesso regr sogr mãe esp pesso necessit cuid ajud</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3838,12 +3830,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>regr pai soub alg sobr voc mat pesso regr sogr voc dev mãe esp pesso conhec necessit cuid ajud</t>
+          <t>regr pai soub mat pesso regr sogr mãe esp pesso necessit cuid ajud</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>atend ped famili amig esforç par resolv problem outr</t>
+          <t>atend ped famili amig esforç resolv problem</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -3865,17 +3857,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig autorregr pesso tod dev gost mim sd solicit ajud amig famili</t>
+          <t>regr regr pai soub mat pesso famíl unid brig autorregr pesso gost mim sd solicit ajud favor amig famili</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>atend ped famili amig esforç par resolv problem outr</t>
+          <t>atend ped famili amig esforç resolv problem</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>famili sempr solicit ajud</t>
+          <t>famili solicit ajud</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3892,12 +3884,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig autorregr pesso tod dev gost mim sd solicit ajud amig famili</t>
+          <t>regr regr pai soub mat pesso famíl unid brig autorregr pesso gost mim sd solicit ajud favor amig famili</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>atend ped famili amig esforç par resolv problem outr</t>
+          <t>atend ped famili amig esforç resolv problem</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -3919,17 +3911,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig autorregr pesso tod dev gost mim sd solicit ajud amig famili</t>
+          <t>regr regr pai soub mat pesso famíl unid brig autorregr pesso gost mim sd solicit ajud favor amig famili</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>atend ped famili amig esforç par resolv problem outr</t>
+          <t>atend ped famili amig esforç resolv problem</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>amig sempr solicit ajud</t>
+          <t>amig solicit ajud</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3942,12 +3934,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>regr regr pai soub alg sobr voc mat pesso famíl unid brig autorregr pesso tod dev gost mim sd solicit ajud amig famili</t>
+          <t>regr regr pai soub mat pesso famíl unid brig autorregr pesso gost mim sd solicit ajud favor amig famili</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>atend ped famili amig esforç par resolv problem outr</t>
+          <t>atend ped famili amig esforç resolv problem</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -3965,12 +3957,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>histór ajud fornec pel mãe profes apresent taref escol</t>
+          <t>histór ajud fornec mãe profes apresent taref escol</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>requ ajud profes par realiz taref escol</t>
+          <t>requ ajud profes realiz taref escol</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -3992,12 +3984,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>histór ajud fornec pel mãe profes apresent taref escol</t>
+          <t>histór ajud fornec mãe profes apresent taref escol</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>requ ajud profes par realiz taref escol</t>
+          <t>requ ajud profes realiz taref escol</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -4019,7 +4011,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>solicit part pal par crianç dorm</t>
+          <t>solicit pal crianç dorm</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -4029,7 +4021,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>atenç mei contat físic</t>
+          <t>atenç contat físic</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4046,7 +4038,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>solicit part pal par crianç dorm</t>
+          <t>solicit pal crianç dorm</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -4056,7 +4048,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>atenç mei vocal grit bronc</t>
+          <t>atenç vocal grit bronc</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4083,7 +4075,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>atenç mei contat físic</t>
+          <t>atenç contat físic</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -4110,7 +4102,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>atenç mei vocal grit bronc</t>
+          <t>atenç vocal grit bronc</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4127,12 +4119,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>comport crianç vocal chor cham pal moment dorm</t>
+          <t>comport crianç vocal chor cham pal dorm</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>atenç mei contat físic atenç mei vocal grit bronc</t>
+          <t>atenç contat físic atenç vocal grit bronc</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -4154,17 +4146,17 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>comport crianç vocal chor cham pal moment dorm</t>
+          <t>comport crianç vocal chor cham pal dorm</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>atenç mei contat físic atenç mei vocal grit bronc</t>
+          <t>atenç contat físic atenç vocal grit bronc</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>obt ambi par son crianç dorm pal pod dorm</t>
+          <t>obt ambi favor son crianç dorm pal dorm</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -4181,12 +4173,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>crianç sai cam cham pel pal</t>
+          <t>crianç sai cam cham pal</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>atenç mei contat físic atenç mei vocal grit bronc</t>
+          <t>atenç contat físic atenç vocal grit bronc</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -4208,17 +4200,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>crianç sai cam cham pel pal</t>
+          <t>crianç sai cam cham pal</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>atenç mei contat físic atenç mei vocal grit bronc</t>
+          <t>atenç contat físic atenç vocal grit bronc</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>obt ambi par son crianç dorm pal pod dorm</t>
+          <t>obt ambi favor son crianç dorm pal dorm</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -4235,12 +4227,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>mãe jov est prest peg ônibu mãe peg carte par jov pag pass amig jov aprox</t>
+          <t>mãe jov prest ônibu mãe peg carte jov pag pass amig jov aprox</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>afast mãe fing vê ped par mãe guard carte porqu pod</t>
+          <t>afast mãe fing vê ped mãe guard carte</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -4262,12 +4254,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>presenç apen mãe</t>
+          <t>presenç mãe</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>convers sobr quas tud ped par convers pai sobr alg desej</t>
+          <t>convers quas ped convers pai desej</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -4294,7 +4286,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>sai pert dispõ ouv qu qu</t>
+          <t>sai dispõ ouv</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -4321,7 +4313,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ativ norm dentr aceit pel pal respost respond ansiedad</t>
+          <t>ativ norm aceit pal respost respond ansiedad</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -4348,7 +4340,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ativ norm dentr aceit pel pal respost respond ansiedad</t>
+          <t>ativ norm aceit pal respost respond ansiedad</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -4375,12 +4367,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ativ norm dentr aceit pel pal respost respond ansiedad</t>
+          <t>ativ norm aceit pal respost respond ansiedad</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>pai tent entend comport filh gost mei convers</t>
+          <t>pai tent entend comport filh gost convers</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -4388,11 +4380,7 @@
           <t>r-</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>est</t>
-        </is>
-      </c>
+      <c r="E147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4402,7 +4390,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ativ aceit pel pal ment and ônibu escol ouv músic alt respost respond ansiedad</t>
+          <t>ativ aceit pal ment and ônibu escol ouv músic alt respost respond ansiedad</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -4417,7 +4405,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>alegr est</t>
+          <t>alegr</t>
         </is>
       </c>
     </row>
@@ -4429,7 +4417,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ativ norm dentr aceit pel pal evit pai fing vê escut respost respond ansiedad</t>
+          <t>ativ norm aceit pal evit pai fing vê escut respost respond ansiedad</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -4456,7 +4444,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ativ norm dentr aceit pel pal evit pai fing vê escut respost respond ansiedad</t>
+          <t>ativ norm aceit pal evit pai fing vê escut respost respond ansiedad</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -4483,7 +4471,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ativ aceit pel pal ment and ônibu escol ouv músic alt respost respond ansiedad</t>
+          <t>ativ aceit pal ment and ônibu escol ouv músic alt respost respond ansiedad</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -4510,7 +4498,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ativ aceit pel pal ment and ônibu escol ouv músic alt respost respond ansiedad</t>
+          <t>ativ aceit pal ment and ônibu escol ouv músic alt respost respond ansiedad</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -4537,7 +4525,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ativ aceit pel pal ment and ônibu escol ouv músic alt respost respond ansiedad</t>
+          <t>ativ aceit pal ment and ônibu escol ouv músic alt respost respond ansiedad</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -4559,12 +4547,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>presenç mãe cas qu moment resoluç taref escol</t>
+          <t>presenç mãe cas resoluç taref escol</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>taref so deix la</t>
+          <t>taref so deix faz la</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -4586,17 +4574,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>presenç mãe cas qu moment resoluç taref escol</t>
+          <t>presenç mãe cas resoluç taref escol</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>taref so deix la</t>
+          <t>taref so deix faz la</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>evit contat ativ avers cust par</t>
+          <t>evit contat ativ avers cust</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -4618,12 +4606,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>aument voz xing discut car raiv consegu pens cl respost respond transpir sens est estress</t>
+          <t>aument voz xing discut car raiv consegu pens cl respost respond transpir sens estress</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>algum mãe ajud</t>
+          <t>mãe ajud</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -4645,7 +4633,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>aument voz xing discut car raiv consegu pens cl respost respond transpir sens est estress</t>
+          <t>aument voz xing discut car raiv consegu pens cl respost respond transpir sens estress</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -4672,12 +4660,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>aument voz xing discut car raiv consegu pens cl respost respond transpir sens est estress</t>
+          <t>aument voz xing discut car raiv consegu pens cl respost respond transpir sens estress</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>outr mãe mand naquel moment</t>
+          <t>mãe mand</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -4758,7 +4746,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>contat ativ reforç par</t>
+          <t>contat ativ reforç</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -4839,7 +4827,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>baix desempenh escol</t>
+          <t>desempenh escol</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -4883,12 +4871,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>so cas amig convid par sair</t>
+          <t>so cas amig convid sair</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>par rua encontr amig</t>
+          <t>rua encontr amig</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -4915,7 +4903,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>rol chã form suj afirm par profes est apen suj</t>
+          <t>rol chã suj afirm profes suj</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -4942,12 +4930,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>rol chã form suj afirm par profes est apen suj</t>
+          <t>rol chã suj afirm profes suj</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>profes perceb vaz urin cham mãe par convers cham atenç</t>
+          <t>profes perceb vaz urin cham mãe convers cham atenç</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5072,7 +5060,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>repet matér viu qu tent convenc lo alg qu</t>
+          <t>repet matér viu tent convenc lo</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -5099,7 +5087,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>repet matér viu qu tent convenc lo alg qu</t>
+          <t>repet matér viu tent convenc lo</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -5109,7 +5097,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>outr par tent convenc lo</t>
+          <t>par convenc lo</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -5207,12 +5195,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>terapeut jov contrat term supervis par ler</t>
+          <t>terapeut jov contrat term supervis ler</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>foc olh papel balanç pern consig ler poi est nerv</t>
+          <t>foc olh papel balanç pern consig ler nerv</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -5234,12 +5222,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>terapeut jov contrat term supervis par ler</t>
+          <t>terapeut jov contrat term supervis ler</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>foc olh papel balanç pern consig ler poi est nerv</t>
+          <t>foc olh papel balanç pern consig ler nerv</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -5266,12 +5254,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>verbaliz fic últ minut</t>
+          <t>verbaliz quer fic minut</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>ped atend pel terapeut</t>
+          <t>ped atend terapeut</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5293,7 +5281,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>verbaliz fic últ minut</t>
+          <t>verbaliz quer fic minut</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -5320,7 +5308,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>verbaliz fic últ minut</t>
+          <t>verbaliz quer fic minut</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -5333,26 +5321,22 @@
           <t>r+</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>est</t>
-        </is>
-      </c>
+      <c r="E182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>taref terap sobr aut observ</t>
+          <t>taref terap aut observ</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>adi comport procrastin vésp tent lembr acontec esquec pouc</t>
+          <t>adi comport procrastin vésp tent lembr acontec esquec</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>evit contat ativ cust avers par</t>
+          <t>evit contat ativ cust avers</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5369,12 +5353,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>taref terap sobr aut observ</t>
+          <t>taref terap aut observ</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>adi comport procrastin vésp tent lembr acontec esquec pouc</t>
+          <t>adi comport procrastin vésp tent lembr acontec esquec</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -5396,7 +5380,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ativ complex raciocíni lógic envolv correlac tod inform dad dur jog par alcanc result</t>
+          <t>ativ complex raciocíni lógic envolv correlac inform dad dur jog alcanc result</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -5423,7 +5407,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ativ complex raciocíni lógic envolv correlac tod inform dad dur jog par alcanc result</t>
+          <t>ativ complex raciocíni lógic envolv correlac inform dad dur jog alcanc result</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -5433,7 +5417,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>respost dad afast result corret jog exig concaten corret ide par alcanc result ganh</t>
+          <t>respost dad afast result corret jog exig concaten corret ide alcanc result ganh</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
